--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H2">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N2">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O2">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P2">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q2">
-        <v>44.00108458286991</v>
+        <v>59.81642030112778</v>
       </c>
       <c r="R2">
-        <v>44.00108458286991</v>
+        <v>538.3477827101501</v>
       </c>
       <c r="S2">
-        <v>0.002064123038269059</v>
+        <v>0.002350620346357435</v>
       </c>
       <c r="T2">
-        <v>0.002064123038269059</v>
+        <v>0.002357932210519635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H3">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N3">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P3">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q3">
-        <v>50.49092046036725</v>
+        <v>65.27015822231333</v>
       </c>
       <c r="R3">
-        <v>50.49092046036725</v>
+        <v>587.43142400082</v>
       </c>
       <c r="S3">
-        <v>0.002368565982717354</v>
+        <v>0.002564937205452364</v>
       </c>
       <c r="T3">
-        <v>0.002368565982717354</v>
+        <v>0.002572915725871411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H4">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N4">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O4">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P4">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q4">
-        <v>317.8666537424685</v>
+        <v>451.48068985551</v>
       </c>
       <c r="R4">
-        <v>317.8666537424685</v>
+        <v>4063.32620869959</v>
       </c>
       <c r="S4">
-        <v>0.01491135705647483</v>
+        <v>0.01774194594426179</v>
       </c>
       <c r="T4">
-        <v>0.01491135705647483</v>
+        <v>0.01779713422633318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H5">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N5">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O5">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P5">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q5">
-        <v>382.5736353761611</v>
+        <v>469.2197833741912</v>
       </c>
       <c r="R5">
-        <v>382.5736353761611</v>
+        <v>4222.978050367721</v>
       </c>
       <c r="S5">
-        <v>0.01794680885938233</v>
+        <v>0.01843904339578152</v>
       </c>
       <c r="T5">
-        <v>0.01794680885938233</v>
+        <v>0.01849640007645511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H6">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N6">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O6">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P6">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q6">
-        <v>7.458781082737215</v>
+        <v>9.820201972011667</v>
       </c>
       <c r="R6">
-        <v>7.458781082737215</v>
+        <v>58.92121183207</v>
       </c>
       <c r="S6">
-        <v>0.0003498968722302152</v>
+        <v>0.0003859068537458904</v>
       </c>
       <c r="T6">
-        <v>0.0003498968722302152</v>
+        <v>0.000258071506419653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H7">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N7">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O7">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P7">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q7">
-        <v>11.5824731710629</v>
+        <v>15.21893096951667</v>
       </c>
       <c r="R7">
-        <v>11.5824731710629</v>
+        <v>136.97037872565</v>
       </c>
       <c r="S7">
-        <v>0.0005433422821089213</v>
+        <v>0.0005980620138527527</v>
       </c>
       <c r="T7">
-        <v>0.0005433422821089213</v>
+        <v>0.0005999223517897742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H8">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N8">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P8">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q8">
-        <v>13.29080265085436</v>
+        <v>16.60651084358</v>
       </c>
       <c r="R8">
-        <v>13.29080265085436</v>
+        <v>149.45859759222</v>
       </c>
       <c r="S8">
-        <v>0.0006234812666276018</v>
+        <v>0.0006525900760094222</v>
       </c>
       <c r="T8">
-        <v>0.0006234812666276018</v>
+        <v>0.0006546200295052194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H9">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N9">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O9">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P9">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q9">
-        <v>83.67252816265803</v>
+        <v>114.86901787821</v>
       </c>
       <c r="R9">
-        <v>83.67252816265803</v>
+        <v>1033.82116090389</v>
       </c>
       <c r="S9">
-        <v>0.003925139452539703</v>
+        <v>0.004514035598106921</v>
       </c>
       <c r="T9">
-        <v>0.003925139452539703</v>
+        <v>0.004528077004311816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H10">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N10">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O10">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P10">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q10">
-        <v>100.7054464613238</v>
+        <v>119.3823277413467</v>
       </c>
       <c r="R10">
-        <v>100.7054464613238</v>
+        <v>1074.44094967212</v>
       </c>
       <c r="S10">
-        <v>0.004724166099326451</v>
+        <v>0.004691396228186365</v>
       </c>
       <c r="T10">
-        <v>0.004724166099326451</v>
+        <v>0.004705989334216742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H11">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N11">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O11">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P11">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q11">
-        <v>1.963386416462749</v>
+        <v>2.498527580995</v>
       </c>
       <c r="R11">
-        <v>1.963386416462749</v>
+        <v>14.99116548597</v>
       </c>
       <c r="S11">
-        <v>9.210389183958974E-05</v>
+        <v>9.818524308635935E-05</v>
       </c>
       <c r="T11">
-        <v>9.210389183958974E-05</v>
+        <v>6.566043941826835E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H12">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N12">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O12">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P12">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q12">
-        <v>389.4378176591295</v>
+        <v>503.0121017502079</v>
       </c>
       <c r="R12">
-        <v>389.4378176591295</v>
+        <v>4527.108915751871</v>
       </c>
       <c r="S12">
-        <v>0.01826881266732186</v>
+        <v>0.01976698830999357</v>
       </c>
       <c r="T12">
-        <v>0.01826881266732186</v>
+        <v>0.01982847570996543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H13">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N13">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P13">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q13">
-        <v>446.8770272844855</v>
+        <v>548.8740266250173</v>
       </c>
       <c r="R13">
-        <v>446.8770272844855</v>
+        <v>4939.866239625157</v>
       </c>
       <c r="S13">
-        <v>0.02096332797328822</v>
+        <v>0.02156923547207944</v>
       </c>
       <c r="T13">
-        <v>0.02096332797328822</v>
+        <v>0.02163632896086794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H14">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N14">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O14">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P14">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q14">
-        <v>2813.323742212245</v>
+        <v>3796.620552694159</v>
       </c>
       <c r="R14">
-        <v>2813.323742212245</v>
+        <v>34169.58497424742</v>
       </c>
       <c r="S14">
-        <v>0.131975073011504</v>
+        <v>0.1491967167816867</v>
       </c>
       <c r="T14">
-        <v>0.131975073011504</v>
+        <v>0.1496608096447662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H15">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N15">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O15">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P15">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q15">
-        <v>3386.022028030068</v>
+        <v>3945.793282674576</v>
       </c>
       <c r="R15">
-        <v>3386.022028030068</v>
+        <v>35512.13954407119</v>
       </c>
       <c r="S15">
-        <v>0.1588407681856175</v>
+        <v>0.15505879365704</v>
       </c>
       <c r="T15">
-        <v>0.1588407681856175</v>
+        <v>0.1555411211575791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H16">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N16">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O16">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P16">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q16">
-        <v>66.01499610282839</v>
+        <v>82.58067615356768</v>
       </c>
       <c r="R16">
-        <v>66.01499610282839</v>
+        <v>495.4840569214061</v>
       </c>
       <c r="S16">
-        <v>0.003096811717685226</v>
+        <v>0.003245192818381854</v>
       </c>
       <c r="T16">
-        <v>0.003096811717685226</v>
+        <v>0.002170191566002897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H17">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N17">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O17">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P17">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q17">
-        <v>723.9532722256938</v>
+        <v>863.9217387720488</v>
       </c>
       <c r="R17">
-        <v>723.9532722256938</v>
+        <v>7775.29564894844</v>
       </c>
       <c r="S17">
-        <v>0.03396117713909908</v>
+        <v>0.03394974166950915</v>
       </c>
       <c r="T17">
-        <v>0.03396117713909908</v>
+        <v>0.0340553460899822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H18">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N18">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P18">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q18">
-        <v>830.7310474615122</v>
+        <v>942.6894537900745</v>
       </c>
       <c r="R18">
-        <v>830.7310474615122</v>
+        <v>8484.205084110672</v>
       </c>
       <c r="S18">
-        <v>0.03897020061951513</v>
+        <v>0.03704509563127012</v>
       </c>
       <c r="T18">
-        <v>0.03897020061951513</v>
+        <v>0.0371603284920557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H19">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N19">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O19">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P19">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q19">
-        <v>5229.884815109309</v>
+        <v>6520.684130518295</v>
       </c>
       <c r="R19">
-        <v>5229.884815109309</v>
+        <v>58686.15717466467</v>
       </c>
       <c r="S19">
-        <v>0.2453377192107511</v>
+        <v>0.2562449025234858</v>
       </c>
       <c r="T19">
-        <v>0.2453377192107511</v>
+        <v>0.2570419805894573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H20">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N20">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O20">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P20">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q20">
-        <v>6294.513824454157</v>
+        <v>6776.887835784324</v>
       </c>
       <c r="R20">
-        <v>6294.513824454157</v>
+        <v>60991.99052205892</v>
       </c>
       <c r="S20">
-        <v>0.2952802441787331</v>
+        <v>0.2663130015400887</v>
       </c>
       <c r="T20">
-        <v>0.2952802441787331</v>
+        <v>0.2671413975398538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H21">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N21">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O21">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P21">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q21">
-        <v>122.7199061762426</v>
+        <v>141.8320574859453</v>
       </c>
       <c r="R21">
-        <v>122.7199061762426</v>
+        <v>850.992344915672</v>
       </c>
       <c r="S21">
-        <v>0.005756880494968883</v>
+        <v>0.005573608691624004</v>
       </c>
       <c r="T21">
-        <v>0.005756880494968883</v>
+        <v>0.003727297344628714</v>
       </c>
     </row>
   </sheetData>
